--- a/examples/medcalc/medcalc_out.xlsx
+++ b/examples/medcalc/medcalc_out.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/b4p/medcalc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\examples\medcalc\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>VarMulti</t>
   </si>
   <si>
-    <t>Health_Factor</t>
+    <t>Parameter</t>
   </si>
   <si>
     <t>Q_Num</t>
@@ -57,12 +57,12 @@
     <t>Validation</t>
   </si>
   <si>
+    <t>Condition</t>
+  </si>
+  <si>
     <t>Calculation</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -117,7 +117,7 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>50 .. 500</t>
+    <t>50 .. 650</t>
   </si>
   <si>
     <t>Height</t>
@@ -129,7 +129,7 @@
     <t>Length</t>
   </si>
   <si>
-    <t>40 .. 80</t>
+    <t>40 .. 85</t>
   </si>
   <si>
     <t>BMI</t>
@@ -177,21 +177,21 @@
     <t>What is your biological  gender (male, female)</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Gender (=M)</t>
   </si>
   <si>
@@ -213,15 +213,12 @@
     <t>Risk_Level</t>
   </si>
   <si>
-    <t>Low Risk</t>
+    <t>High Risk</t>
   </si>
   <si>
     <t>compare select ( [Yes_Count],  High Risk,  (0..2), Low Risk, (3..4), Medium Risk)</t>
   </si>
   <si>
-    <t>High Risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">["Yes_Count_STOP (&gt;2)"] == Y  &amp;   ["BMI (&gt;35)"] == Y </t>
   </si>
   <si>
@@ -229,6 +226,24 @@
   </si>
   <si>
     <t xml:space="preserve">["Yes_Count_STOP (&gt;2)"] == Y  &amp;   ["Neck Size ( &gt; 16)"] == Y </t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>table copy table columns selected rows (medcalc, medcalc_Output, {Q_Num, Questions, Answer}, [Q_Num] != "" );</t>
+  </si>
+  <si>
+    <t>table process ( medcalc_Output, [Questions]= '&amp;white;' + [Questions] );</t>
+  </si>
+  <si>
+    <t>table view ( medcalc_Output, "", new line, {hide row numbers, no input}  );</t>
+  </si>
+  <si>
+    <t>echo ("Final Risk Score is: ", select by value (  [Risk_Level], High Risk, '&amp;red;', Medium Risk, '&amp;yellow;', Low Risk, '&amp;green;') +  [Risk_Level] + '&amp;default;');</t>
   </si>
 </sst>
 </file>
@@ -584,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">
@@ -681,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -765,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -807,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -827,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -836,17 +851,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="E16">
-        <v>75.5</v>
+        <v>24.4</v>
       </c>
       <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -855,12 +870,12 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>36</v>
       </c>
       <c r="J17" t="s">
@@ -878,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -892,12 +907,12 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>42</v>
       </c>
       <c r="J19" t="s">
@@ -915,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -974,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,10 +997,10 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
         <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -993,47 +1008,47 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>53</v>
       </c>
       <c r="J26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +1058,7 @@
       <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1058,35 +1073,85 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>58</v>
       </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>58</v>
       </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
       <c r="F32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
